--- a/Code/Jupiter/Connect4/H2h.xlsx
+++ b/Code/Jupiter/Connect4/H2h.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,1259 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4976995399079816</v>
+        <v>0.497699539907982</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>0.484–0.512</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt (noseed)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RANDOM I DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2463</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2536</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.492698539707942</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.479–0.507</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RANDOM III</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RANDOM I DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2867</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2132</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.573514702940588</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.560–0.587</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>RANDOM III DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1.000–1.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2457</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2542</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.491498299659932</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.478–0.505</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2511</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.497699539907982</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.484–0.512</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2478</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2521</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.495699139827966</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.482–0.510</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2478</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2521</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.495699139827966</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.482–0.510</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RANDOM III DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.000–0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>RANDOM III DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1.000–1.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RANDOM III DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1.000–1.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Backup/RANDOM I DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RANDOM III DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2130</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2869</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.426085217043409</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.412–0.440</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2457</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2542</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.491498299659932</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.478–0.505</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2457</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2542</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.491498299659932</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.478–0.505</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RANDOM V DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.499299859971994</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.485–0.513</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM VI DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.499299859971994</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.485–0.513</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM VI DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RANDOM V DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2904</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2095</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.580916183236647</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.567–0.595</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM VII DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.499299859971994</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.485–0.513</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM VII DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM VI DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2529</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2470</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.505901180236047</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.492–0.520</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM VIII DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM VI DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2529</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2470</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.505901180236047</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.492–0.520</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM VIII DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.499299859971994</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.485–0.513</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.499299859971994</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.485–0.513</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM VI DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2174</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1438</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1387</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.573614722944589</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.562–0.585</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RANDOM V DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4685</v>
+      </c>
+      <c r="E25" t="n">
+        <v>314</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.937187437487498</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.930–0.944</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>phase-L1_Intro Interim Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2168</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2831</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.43368673734747</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.420–0.447</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>phase-L1_Tickle Interim Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2469</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2530</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.493898779755951</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.480–0.508</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2494</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2505</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.498899779955991</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.485–0.513</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.000–0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2498</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2501</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.499699939987998</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.486–0.514</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM XII DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2557</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.488497699539908</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.475–0.502</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM XII DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2557</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.488497699539908</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.475–0.502</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM XII DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2442</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2557</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.488497699539908</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.475–0.502</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM XII DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2493</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2506</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.49869973994799</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.485–0.513</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4999</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM XII DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Backup/RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2486</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2513</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.497299459891978</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.483–0.511</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RANDOM XIII SEED DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2494</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2506</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.4988</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.485–0.513</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RANDOM XIII NOSEED DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3948</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2104</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.199–0.222</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1445</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3555</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.276–0.302</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Connect4 DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>712</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4288</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1424</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.133–0.152</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RANDOM BASE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DISTILLED RANDOM IX DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2505</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.485–0.513</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RANDOM BASE DQN model.pt</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Backup/RANDOM IV DQN model.pt</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2512</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.4976</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.484–0.511</t>
         </is>
       </c>
     </row>
